--- a/data/trans_bre/P16A13-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.541164409973644</v>
+        <v>-3.658011257426937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.139203772434431</v>
+        <v>-2.559002026928468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.151606003899478</v>
+        <v>-4.089011844571709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.731627254035679</v>
+        <v>-4.786750501113687</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8384319081902076</v>
+        <v>-0.8298474419479891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3772799184558375</v>
+        <v>-0.4774470739907432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7155051716474714</v>
+        <v>-0.7261507355867702</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.568539209317499</v>
+        <v>-0.5767678363130441</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.028643338896726</v>
+        <v>0.7779938163412995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.267295691511052</v>
+        <v>5.670181053854712</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.932978270599691</v>
+        <v>1.789566302987512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.01515764437359764</v>
+        <v>0.1180501259802822</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5276878853034439</v>
+        <v>0.5092202820521329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.880145426206465</v>
+        <v>1.803841923684977</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7978966938129486</v>
+        <v>0.7100912019912531</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.03513787000282065</v>
+        <v>0.02758119830537794</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.9655897104823354</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.936665528853587</v>
+        <v>-0.9366655288535863</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3291131232154692</v>
@@ -749,7 +749,7 @@
         <v>0.2922165312128596</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1667519812649969</v>
+        <v>-0.1667519812649967</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.822858946112705</v>
+        <v>-1.652743719814235</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.609724093756385</v>
+        <v>-1.333938729639943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.150280148962804</v>
+        <v>-1.73009779972448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.676250939704698</v>
+        <v>-3.650562940391419</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5672426428129282</v>
+        <v>-0.530250766935713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.377306834087031</v>
+        <v>-0.3940952194475778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4961469644257052</v>
+        <v>-0.4156603523794288</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5333542554572966</v>
+        <v>-0.5076476282452784</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.301357029431432</v>
+        <v>3.234013426585033</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.848973821338498</v>
+        <v>4.85146089650929</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.196947885377239</v>
+        <v>4.193691863687584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.735722439164116</v>
+        <v>1.624358265290937</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.799414885964679</v>
+        <v>2.566268228658522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.719545425676714</v>
+        <v>2.78246178302334</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.341178533040884</v>
+        <v>2.098287993056575</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3997189981622465</v>
+        <v>0.3648463579639117</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.254884036695394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.440852434942324</v>
+        <v>3.440852434942322</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.406504362646445</v>
@@ -849,7 +849,7 @@
         <v>1.105694966768247</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4397231652318373</v>
+        <v>0.4397231652318371</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05673060465416076</v>
+        <v>0.1439738537789178</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.479583168191924</v>
+        <v>-1.645870202363154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1790840297018169</v>
+        <v>-0.2247197538846676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3152227748425271</v>
+        <v>-0.4301219742462591</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1204095990337806</v>
+        <v>-0.01659621470432663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3929864292419649</v>
+        <v>-0.4048520168803294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08224004682487832</v>
+        <v>-0.2022903332664442</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04197737379187434</v>
+        <v>-0.04024163172392313</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.523398485112019</v>
+        <v>7.133013613639022</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.991087318735637</v>
+        <v>4.987637764016675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.08456681658736</v>
+        <v>9.075987817268791</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.177180481808444</v>
+        <v>7.727435449111038</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.939936682629095</v>
+        <v>4.66750661694623</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.949227679874629</v>
+        <v>2.29129960254961</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.423647863936955</v>
+        <v>4.512044074393867</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.241162127198122</v>
+        <v>1.254138627924062</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.654715377731263</v>
+        <v>-1.634679407604179</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.840705462319268</v>
+        <v>-2.976133997131875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1886823447168085</v>
+        <v>0.08716587792587856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.430686235593479</v>
+        <v>-1.382692752642297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4736598708683231</v>
+        <v>-0.445522512973086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4692630718718614</v>
+        <v>-0.4829389543370637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04042327458661258</v>
+        <v>0.006928971107028209</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1979268476334705</v>
+        <v>-0.1929958572821211</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.307308875014727</v>
+        <v>1.320413605724819</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.029485726160748</v>
+        <v>1.204586821936831</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.319301767016452</v>
+        <v>3.361674469094354</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.287990751127678</v>
+        <v>2.465873715331903</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5027411744531021</v>
+        <v>0.5564739126620094</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2315914455457178</v>
+        <v>0.2757702726321826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.246625068195081</v>
+        <v>2.07539196731636</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4118376704859955</v>
+        <v>0.4381746431833716</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.708735757813065</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.12075882148985</v>
+        <v>6.120758821489853</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.02822532846728231</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.568516951809757</v>
+        <v>-2.712883143387379</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2234005406117923</v>
+        <v>0.47874112154837</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.781596822966425</v>
+        <v>-2.761077597957253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.376556970216887</v>
+        <v>3.346308521678468</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5652964362540885</v>
+        <v>-0.5666459879426808</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.0105269977417312</v>
+        <v>0.04895533715216448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5480737781866818</v>
+        <v>-0.525016142217986</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4407407751921187</v>
+        <v>0.3944732162929331</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.294400209340357</v>
+        <v>2.138032080116748</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.064762136316864</v>
+        <v>5.402737240744437</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.61237231165238</v>
+        <v>1.40407465489134</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.602913973983622</v>
+        <v>8.503125258062235</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.392275042394588</v>
+        <v>1.267911468497155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.796699856256181</v>
+        <v>1.924874993892207</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5189298680354449</v>
+        <v>0.4712291606611463</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.877466163074698</v>
+        <v>1.830283264247198</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>11.12539317060115</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5.651441816466736</v>
+        <v>5.651441816466735</v>
       </c>
     </row>
     <row r="20">
@@ -1160,26 +1160,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.117970551073798</v>
+        <v>2.215754813631512</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6206180579967905</v>
+        <v>0.6559018148138868</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.748040766231182</v>
+        <v>2.551678127045026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.862048137583832</v>
+        <v>6.007891632737925</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6974593988115696</v>
+        <v>0.8327332604032366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0003791579704407387</v>
+        <v>-0.0326967936511567</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>1.31112334192629</v>
+        <v>1.760420858263891</v>
       </c>
     </row>
     <row r="21">
@@ -1190,24 +1190,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.12529252057477</v>
+        <v>5.289452101025011</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.258966151998202</v>
+        <v>5.195104968273877</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.783182067130435</v>
+        <v>5.767620544121053</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.30261202167062</v>
+        <v>10.3584323764749</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>7.182871168925351</v>
+        <v>11.3532560439951</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>16.30160981907442</v>
+        <v>18.06227197650057</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1231,7 @@
         <v>1.177807272469615</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.253190658629208</v>
+        <v>2.253190658629209</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3575109623490347</v>
@@ -1243,7 +1243,7 @@
         <v>0.4072311331427447</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3611141088902983</v>
+        <v>0.3611141088902985</v>
       </c>
     </row>
     <row r="23">
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1627789227314522</v>
+        <v>0.1732569827938391</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2411190396628378</v>
+        <v>0.1829887850510553</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2495049713773307</v>
+        <v>0.2593085001214944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.067834148076583</v>
+        <v>1.134771145702825</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05032036114494842</v>
+        <v>0.06290669211065683</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05630913164107825</v>
+        <v>0.03310332110047907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07006845730423364</v>
+        <v>0.07054649742151722</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1479251062379139</v>
+        <v>0.1676274262917822</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.788913523852977</v>
+        <v>1.783331496196905</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.340002302800831</v>
+        <v>2.364774744447935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.044839835235374</v>
+        <v>2.083921707774913</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.239136910250892</v>
+        <v>3.302065846052197</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7880328651893816</v>
+        <v>0.8159828040563722</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6644541607819119</v>
+        <v>0.6647315383079354</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.84030293816726</v>
+        <v>0.8489302027204435</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5685353837619882</v>
+        <v>0.5755032099267697</v>
       </c>
     </row>
     <row r="25">
